--- a/stats/excel/sheets/sample.xlsx
+++ b/stats/excel/sheets/sample.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,8 +743,128 @@
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="1">
-        <f> SUM(C1:C21)</f>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cobro de visita</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:39:06.732719</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Registro de cliente</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:39:31.769715</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Registro de cliente</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:42:58.285848</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Registro de cliente</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:43:32.765693</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Registro de cliente</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:52:39.815183</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Registro de cliente</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:53:33.918583</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Registro de cliente</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:54:58.533761</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Registro de cliente</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2022-05-22 11:56:07.062445</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="1">
+        <f> SUM(C1:C29)</f>
         <v/>
       </c>
     </row>
